--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R201_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R201_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +547,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +640,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -940,10 +952,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -987,28 +999,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1033,28 +1045,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1374,10 +1386,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1421,28 +1433,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1467,28 +1479,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1895,10 +1907,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="J61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1942,28 +1954,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1988,28 +2000,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2329,10 +2341,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="J76" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="K76" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2376,28 +2388,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2422,28 +2434,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2908,10 +2920,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="J96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2955,28 +2967,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3001,28 +3013,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3371,10 +3383,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="J112" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3418,28 +3430,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3464,28 +3476,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3747,10 +3759,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
+      <c r="J125" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3794,28 +3806,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3840,28 +3852,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4123,10 +4135,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
+      <c r="J138" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4170,28 +4182,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4216,28 +4228,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4441,10 +4453,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
+      <c r="J149" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K149" s="2" t="s">
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4488,28 +4500,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4534,28 +4546,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4643,10 +4655,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
